--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,46 @@
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>shame</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>sc</t>
   </si>
   <si>
     <t>empty</t>
@@ -85,15 +91,6 @@
     <t>risk</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -112,22 +112,31 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
   </si>
   <si>
     <t>thanks</t>
@@ -136,118 +145,124 @@
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -605,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
@@ -724,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8888888888888888</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -774,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8461538461538461</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9361702127659575</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
         <v>44</v>
@@ -866,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.839041095890411</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C7">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D7">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8928571428571429</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8157894736842105</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8916666666666667</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8108108108108109</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8873239436619719</v>
+        <v>0.890625</v>
       </c>
       <c r="L9">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1063,13 @@
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8828125</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6274509803921569</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8780487804878049</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5678294573643411</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8490566037735849</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5570469798657718</v>
+        <v>0.5891472868217055</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="D13">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8431372549019608</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1263,13 @@
         <v>41</v>
       </c>
       <c r="K14">
-        <v>0.84</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4901960784313725</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.8095238095238095</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4888888888888889</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7989556135770235</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L16">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="M16">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4675324675324675</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
@@ -1424,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4406779661016949</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.78125</v>
+        <v>0.7875</v>
       </c>
       <c r="L18">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.423728813559322</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4232804232804233</v>
+        <v>0.3625</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7553191489361702</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L20">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,37 +1589,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>0.3306772908366534</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>0.735593220338983</v>
+        <v>0.7441253263707572</v>
       </c>
       <c r="L21">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="M21">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,37 +1639,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3134920634920635</v>
+        <v>0.1752021563342318</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.74</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1666,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,37 +1689,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1903485254691689</v>
+        <v>0.008015389547932029</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>302</v>
+        <v>3094</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.6944444444444444</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,13 +1739,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.676923076923077</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,13 +1765,13 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.6741573033707865</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,13 +1791,13 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.6652719665271967</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1794,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1802,13 +1817,13 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.65</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L27">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1820,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1828,13 +1843,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6428571428571429</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1846,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1854,13 +1869,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.625</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1872,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1880,13 +1895,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.6065573770491803</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1898,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1906,13 +1921,13 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5777777777777777</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1924,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1932,13 +1947,13 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.5625</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1958,25 +1973,25 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.5616438356164384</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1984,13 +1999,13 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.5128205128205128</v>
+        <v>0.59375</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2002,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2010,13 +2025,13 @@
         <v>62</v>
       </c>
       <c r="K35">
-        <v>0.3684210526315789</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2028,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2036,13 +2051,13 @@
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0.3472222222222222</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2054,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2062,25 +2077,25 @@
         <v>64</v>
       </c>
       <c r="K37">
-        <v>0.2692307692307692</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="L37">
         <v>35</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2088,25 +2103,25 @@
         <v>65</v>
       </c>
       <c r="K38">
-        <v>0.2283464566929134</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>29</v>
-      </c>
-      <c r="M38">
-        <v>29</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2114,13 +2129,13 @@
         <v>66</v>
       </c>
       <c r="K39">
-        <v>0.2177033492822966</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L39">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2132,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>327</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2140,13 +2155,13 @@
         <v>67</v>
       </c>
       <c r="K40">
-        <v>0.1813953488372093</v>
+        <v>0.2595419847328244</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2158,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>176</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2166,13 +2181,13 @@
         <v>68</v>
       </c>
       <c r="K41">
-        <v>0.1730769230769231</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L41">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="M41">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2184,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2192,25 +2207,25 @@
         <v>69</v>
       </c>
       <c r="K42">
-        <v>0.1314553990610329</v>
+        <v>0.2120481927710843</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>185</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2218,25 +2233,25 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>0.1104294478527607</v>
+        <v>0.1839622641509434</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>290</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2244,13 +2259,13 @@
         <v>71</v>
       </c>
       <c r="K44">
-        <v>0.09507829977628636</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="L44">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2262,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>809</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2270,25 +2285,25 @@
         <v>72</v>
       </c>
       <c r="K45">
-        <v>0.09442724458204334</v>
+        <v>0.1498470948012232</v>
       </c>
       <c r="L45">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="M45">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>585</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2296,25 +2311,25 @@
         <v>73</v>
       </c>
       <c r="K46">
-        <v>0.06594948550046772</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L46">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1997</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2322,13 +2337,13 @@
         <v>74</v>
       </c>
       <c r="K47">
-        <v>0.06104328523862375</v>
+        <v>0.1308724832214765</v>
       </c>
       <c r="L47">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="M47">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2340,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>846</v>
+        <v>777</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2348,25 +2363,25 @@
         <v>75</v>
       </c>
       <c r="K48">
-        <v>0.05780346820809248</v>
+        <v>0.1044444444444445</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="M48">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2374,25 +2389,25 @@
         <v>76</v>
       </c>
       <c r="K49">
-        <v>0.02264639275315432</v>
+        <v>0.1006493506493507</v>
       </c>
       <c r="L49">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="N49">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>3021</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2400,25 +2415,181 @@
         <v>77</v>
       </c>
       <c r="K50">
-        <v>0.01252740369558409</v>
+        <v>0.08646616541353383</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="M50">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="N50">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="O50">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3153</v>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="L51">
+        <v>39</v>
+      </c>
+      <c r="M51">
+        <v>39</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52">
+        <v>0.07870370370370371</v>
+      </c>
+      <c r="L52">
+        <v>68</v>
+      </c>
+      <c r="M52">
+        <v>71</v>
+      </c>
+      <c r="N52">
+        <v>0.96</v>
+      </c>
+      <c r="O52">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53">
+        <v>0.07858243451463791</v>
+      </c>
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53">
+        <v>52</v>
+      </c>
+      <c r="N53">
+        <v>0.98</v>
+      </c>
+      <c r="O53">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54">
+        <v>0.04041450777202073</v>
+      </c>
+      <c r="L54">
+        <v>39</v>
+      </c>
+      <c r="M54">
+        <v>42</v>
+      </c>
+      <c r="N54">
+        <v>0.93</v>
+      </c>
+      <c r="O54">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55">
+        <v>0.03752830799094144</v>
+      </c>
+      <c r="L55">
+        <v>116</v>
+      </c>
+      <c r="M55">
+        <v>132</v>
+      </c>
+      <c r="N55">
+        <v>0.88</v>
+      </c>
+      <c r="O55">
+        <v>0.12</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56">
+        <v>0.02581863979848866</v>
+      </c>
+      <c r="L56">
+        <v>82</v>
+      </c>
+      <c r="M56">
+        <v>107</v>
+      </c>
+      <c r="N56">
+        <v>0.77</v>
+      </c>
+      <c r="O56">
+        <v>0.23</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3094</v>
       </c>
     </row>
   </sheetData>
